--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Milionaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2036ECD9-7272-4083-8A64-CC7E93AAAF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27C98B-B1D9-4448-BC9C-D4021C06E4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10689" yWindow="6094" windowWidth="16397" windowHeight="9703" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58410" yWindow="6420" windowWidth="13830" windowHeight="13155" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270:XFD270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8279,6 +8279,470 @@
         <v>5</v>
       </c>
     </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>15</v>
+      </c>
+      <c r="C271">
+        <v>18</v>
+      </c>
+      <c r="D271">
+        <v>20</v>
+      </c>
+      <c r="E271">
+        <v>23</v>
+      </c>
+      <c r="F271">
+        <v>27</v>
+      </c>
+      <c r="G271">
+        <v>31</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>22</v>
+      </c>
+      <c r="C272">
+        <v>27</v>
+      </c>
+      <c r="D272">
+        <v>32</v>
+      </c>
+      <c r="E272">
+        <v>33</v>
+      </c>
+      <c r="F272">
+        <v>35</v>
+      </c>
+      <c r="G272">
+        <v>41</v>
+      </c>
+      <c r="H272">
+        <v>5</v>
+      </c>
+      <c r="I272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273">
+        <v>7</v>
+      </c>
+      <c r="D273">
+        <v>18</v>
+      </c>
+      <c r="E273">
+        <v>19</v>
+      </c>
+      <c r="F273">
+        <v>32</v>
+      </c>
+      <c r="G273">
+        <v>48</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>5</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
+      <c r="D274">
+        <v>10</v>
+      </c>
+      <c r="E274">
+        <v>30</v>
+      </c>
+      <c r="F274">
+        <v>37</v>
+      </c>
+      <c r="G274">
+        <v>38</v>
+      </c>
+      <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="I274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>22</v>
+      </c>
+      <c r="E275">
+        <v>24</v>
+      </c>
+      <c r="F275">
+        <v>25</v>
+      </c>
+      <c r="G275">
+        <v>33</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+      <c r="C276">
+        <v>17</v>
+      </c>
+      <c r="D276">
+        <v>19</v>
+      </c>
+      <c r="E276">
+        <v>22</v>
+      </c>
+      <c r="F276">
+        <v>25</v>
+      </c>
+      <c r="G276">
+        <v>36</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+      <c r="I276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>12</v>
+      </c>
+      <c r="C277">
+        <v>16</v>
+      </c>
+      <c r="D277">
+        <v>28</v>
+      </c>
+      <c r="E277">
+        <v>35</v>
+      </c>
+      <c r="F277">
+        <v>39</v>
+      </c>
+      <c r="G277">
+        <v>46</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+      <c r="I277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <v>10</v>
+      </c>
+      <c r="D278">
+        <v>35</v>
+      </c>
+      <c r="E278">
+        <v>42</v>
+      </c>
+      <c r="F278">
+        <v>43</v>
+      </c>
+      <c r="G278">
+        <v>47</v>
+      </c>
+      <c r="H278">
+        <v>4</v>
+      </c>
+      <c r="I278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>18</v>
+      </c>
+      <c r="D279">
+        <v>36</v>
+      </c>
+      <c r="E279">
+        <v>38</v>
+      </c>
+      <c r="F279">
+        <v>45</v>
+      </c>
+      <c r="G279">
+        <v>49</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+      <c r="E280">
+        <v>7</v>
+      </c>
+      <c r="F280">
+        <v>27</v>
+      </c>
+      <c r="G280">
+        <v>32</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>18</v>
+      </c>
+      <c r="C281">
+        <v>22</v>
+      </c>
+      <c r="D281">
+        <v>25</v>
+      </c>
+      <c r="E281">
+        <v>29</v>
+      </c>
+      <c r="F281">
+        <v>37</v>
+      </c>
+      <c r="G281">
+        <v>49</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>5</v>
+      </c>
+      <c r="D282">
+        <v>18</v>
+      </c>
+      <c r="E282">
+        <v>19</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+      <c r="G282">
+        <v>43</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>10</v>
+      </c>
+      <c r="C283">
+        <v>12</v>
+      </c>
+      <c r="D283">
+        <v>17</v>
+      </c>
+      <c r="E283">
+        <v>21</v>
+      </c>
+      <c r="F283">
+        <v>41</v>
+      </c>
+      <c r="G283">
+        <v>50</v>
+      </c>
+      <c r="H283">
+        <v>3</v>
+      </c>
+      <c r="I283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>8</v>
+      </c>
+      <c r="C284">
+        <v>13</v>
+      </c>
+      <c r="D284">
+        <v>17</v>
+      </c>
+      <c r="E284">
+        <v>22</v>
+      </c>
+      <c r="F284">
+        <v>45</v>
+      </c>
+      <c r="G284">
+        <v>47</v>
+      </c>
+      <c r="H284">
+        <v>3</v>
+      </c>
+      <c r="I284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>5</v>
+      </c>
+      <c r="D285">
+        <v>6</v>
+      </c>
+      <c r="E285">
+        <v>30</v>
+      </c>
+      <c r="F285">
+        <v>38</v>
+      </c>
+      <c r="G285">
+        <v>45</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+      <c r="D286">
+        <v>29</v>
+      </c>
+      <c r="E286">
+        <v>34</v>
+      </c>
+      <c r="F286">
+        <v>39</v>
+      </c>
+      <c r="G286">
+        <v>40</v>
+      </c>
+      <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8286,6 +8750,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8453,16 +8927,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8473,6 +8937,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8492,17 +8967,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27C98B-B1D9-4448-BC9C-D4021C06E4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A226D9F-5EF1-4E78-81C5-85DDCABFD88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58410" yWindow="6420" windowWidth="13830" windowHeight="13155" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="57510" windowHeight="22395" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270:XFD270"/>
+      <selection activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8743,6 +8745,64 @@
         <v>4</v>
       </c>
     </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3">
+        <v>15</v>
+      </c>
+      <c r="C287" s="3">
+        <v>19</v>
+      </c>
+      <c r="D287" s="3">
+        <v>20</v>
+      </c>
+      <c r="E287" s="3">
+        <v>30</v>
+      </c>
+      <c r="F287" s="3">
+        <v>35</v>
+      </c>
+      <c r="G287" s="3">
+        <v>45</v>
+      </c>
+      <c r="H287" s="3">
+        <v>3</v>
+      </c>
+      <c r="I287" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3">
+        <v>2</v>
+      </c>
+      <c r="C288" s="3">
+        <v>9</v>
+      </c>
+      <c r="D288" s="3">
+        <v>10</v>
+      </c>
+      <c r="E288" s="3">
+        <v>12</v>
+      </c>
+      <c r="F288" s="3">
+        <v>18</v>
+      </c>
+      <c r="G288" s="3">
+        <v>48</v>
+      </c>
+      <c r="H288" s="3">
+        <v>3</v>
+      </c>
+      <c r="I288" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8750,13 +8810,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8928,21 +8987,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8968,9 +9025,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A226D9F-5EF1-4E78-81C5-85DDCABFD88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD967F4E-B052-4C0C-AD92-80BDD4B1C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57600" yWindow="0" windowWidth="57510" windowHeight="22395" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="76860" yWindow="270" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -109,12 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294"/>
+      <selection activeCell="B293" sqref="B293:I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8746,61 +8745,380 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A287" s="2">
+      <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287">
         <v>15</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287">
         <v>19</v>
       </c>
-      <c r="D287" s="3">
+      <c r="D287">
         <v>20</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287">
         <v>30</v>
       </c>
-      <c r="F287" s="3">
+      <c r="F287">
         <v>35</v>
       </c>
-      <c r="G287" s="3">
+      <c r="G287">
         <v>45</v>
       </c>
-      <c r="H287" s="3">
-        <v>3</v>
-      </c>
-      <c r="I287" s="3">
+      <c r="H287">
+        <v>3</v>
+      </c>
+      <c r="I287">
         <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A288" s="2">
+      <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="3">
-        <v>2</v>
-      </c>
-      <c r="C288" s="3">
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
         <v>9</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D288">
         <v>10</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288">
         <v>12</v>
       </c>
-      <c r="F288" s="3">
+      <c r="F288">
         <v>18</v>
       </c>
-      <c r="G288" s="3">
+      <c r="G288">
         <v>48</v>
       </c>
-      <c r="H288" s="3">
-        <v>3</v>
-      </c>
-      <c r="I288" s="3">
-        <v>5</v>
+      <c r="H288">
+        <v>3</v>
+      </c>
+      <c r="I288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>17</v>
+      </c>
+      <c r="D289">
+        <v>27</v>
+      </c>
+      <c r="E289">
+        <v>33</v>
+      </c>
+      <c r="F289">
+        <v>42</v>
+      </c>
+      <c r="G289">
+        <v>50</v>
+      </c>
+      <c r="H289">
+        <v>3</v>
+      </c>
+      <c r="I289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>12</v>
+      </c>
+      <c r="C290">
+        <v>16</v>
+      </c>
+      <c r="D290">
+        <v>23</v>
+      </c>
+      <c r="E290">
+        <v>29</v>
+      </c>
+      <c r="F290">
+        <v>37</v>
+      </c>
+      <c r="G290">
+        <v>38</v>
+      </c>
+      <c r="H290">
+        <v>3</v>
+      </c>
+      <c r="I290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+      <c r="C291">
+        <v>20</v>
+      </c>
+      <c r="D291">
+        <v>29</v>
+      </c>
+      <c r="E291">
+        <v>31</v>
+      </c>
+      <c r="F291">
+        <v>36</v>
+      </c>
+      <c r="G291">
+        <v>46</v>
+      </c>
+      <c r="H291">
+        <v>2</v>
+      </c>
+      <c r="I291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>14</v>
+      </c>
+      <c r="C292">
+        <v>15</v>
+      </c>
+      <c r="D292">
+        <v>19</v>
+      </c>
+      <c r="E292">
+        <v>22</v>
+      </c>
+      <c r="F292">
+        <v>30</v>
+      </c>
+      <c r="G292">
+        <v>31</v>
+      </c>
+      <c r="H292">
+        <v>3</v>
+      </c>
+      <c r="I292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2">
+        <v>10</v>
+      </c>
+      <c r="C293" s="2">
+        <v>15</v>
+      </c>
+      <c r="D293" s="2">
+        <v>23</v>
+      </c>
+      <c r="E293" s="2">
+        <v>29</v>
+      </c>
+      <c r="F293" s="2">
+        <v>38</v>
+      </c>
+      <c r="G293" s="2">
+        <v>42</v>
+      </c>
+      <c r="H293" s="2">
+        <v>1</v>
+      </c>
+      <c r="I293" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2">
+        <v>4</v>
+      </c>
+      <c r="C294" s="2">
+        <v>21</v>
+      </c>
+      <c r="D294" s="2">
+        <v>29</v>
+      </c>
+      <c r="E294" s="2">
+        <v>33</v>
+      </c>
+      <c r="F294" s="2">
+        <v>39</v>
+      </c>
+      <c r="G294" s="2">
+        <v>42</v>
+      </c>
+      <c r="H294" s="2">
+        <v>1</v>
+      </c>
+      <c r="I294" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2">
+        <v>3</v>
+      </c>
+      <c r="C295" s="2">
+        <v>9</v>
+      </c>
+      <c r="D295" s="2">
+        <v>19</v>
+      </c>
+      <c r="E295" s="2">
+        <v>21</v>
+      </c>
+      <c r="F295" s="2">
+        <v>36</v>
+      </c>
+      <c r="G295" s="2">
+        <v>49</v>
+      </c>
+      <c r="H295" s="2">
+        <v>3</v>
+      </c>
+      <c r="I295" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2">
+        <v>2</v>
+      </c>
+      <c r="C296" s="2">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2">
+        <v>24</v>
+      </c>
+      <c r="E296" s="2">
+        <v>26</v>
+      </c>
+      <c r="F296" s="2">
+        <v>28</v>
+      </c>
+      <c r="G296" s="2">
+        <v>29</v>
+      </c>
+      <c r="H296" s="2">
+        <v>1</v>
+      </c>
+      <c r="I296" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2">
+        <v>14</v>
+      </c>
+      <c r="C297" s="2">
+        <v>17</v>
+      </c>
+      <c r="D297" s="2">
+        <v>22</v>
+      </c>
+      <c r="E297" s="2">
+        <v>24</v>
+      </c>
+      <c r="F297" s="2">
+        <v>30</v>
+      </c>
+      <c r="G297" s="2">
+        <v>38</v>
+      </c>
+      <c r="H297" s="2">
+        <v>1</v>
+      </c>
+      <c r="I297" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1</v>
+      </c>
+      <c r="C298" s="2">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2">
+        <v>10</v>
+      </c>
+      <c r="E298" s="2">
+        <v>37</v>
+      </c>
+      <c r="F298" s="2">
+        <v>40</v>
+      </c>
+      <c r="G298" s="2">
+        <v>45</v>
+      </c>
+      <c r="H298" s="2">
+        <v>2</v>
+      </c>
+      <c r="I298" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2">
+        <v>2</v>
+      </c>
+      <c r="C299" s="2">
+        <v>9</v>
+      </c>
+      <c r="D299" s="2">
+        <v>10</v>
+      </c>
+      <c r="E299" s="2">
+        <v>28</v>
+      </c>
+      <c r="F299" s="2">
+        <v>35</v>
+      </c>
+      <c r="G299" s="2">
+        <v>36</v>
+      </c>
+      <c r="H299" s="2">
+        <v>2</v>
+      </c>
+      <c r="I299" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD967F4E-B052-4C0C-AD92-80BDD4B1C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340643E7-42CC-40AF-8F53-B44263AD1E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76860" yWindow="270" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57960" yWindow="510" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -109,11 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293:I299"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300:I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8922,28 +8923,28 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293">
         <v>10</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293">
         <v>15</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293">
         <v>23</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293">
         <v>29</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293">
         <v>38</v>
       </c>
-      <c r="G293" s="2">
+      <c r="G293">
         <v>42</v>
       </c>
-      <c r="H293" s="2">
-        <v>1</v>
-      </c>
-      <c r="I293" s="2">
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
         <v>4</v>
       </c>
     </row>
@@ -8951,28 +8952,28 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="2">
-        <v>4</v>
-      </c>
-      <c r="C294" s="2">
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294">
         <v>21</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294">
         <v>29</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294">
         <v>33</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294">
         <v>39</v>
       </c>
-      <c r="G294" s="2">
+      <c r="G294">
         <v>42</v>
       </c>
-      <c r="H294" s="2">
-        <v>1</v>
-      </c>
-      <c r="I294" s="2">
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
         <v>4</v>
       </c>
     </row>
@@ -8980,28 +8981,28 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="2">
-        <v>3</v>
-      </c>
-      <c r="C295" s="2">
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295">
         <v>9</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295">
         <v>19</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295">
         <v>21</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295">
         <v>36</v>
       </c>
-      <c r="G295" s="2">
+      <c r="G295">
         <v>49</v>
       </c>
-      <c r="H295" s="2">
-        <v>3</v>
-      </c>
-      <c r="I295" s="2">
+      <c r="H295">
+        <v>3</v>
+      </c>
+      <c r="I295">
         <v>4</v>
       </c>
     </row>
@@ -9009,28 +9010,28 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="2">
-        <v>2</v>
-      </c>
-      <c r="C296" s="2">
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
         <v>12</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296">
         <v>24</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296">
         <v>26</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296">
         <v>28</v>
       </c>
-      <c r="G296" s="2">
+      <c r="G296">
         <v>29</v>
       </c>
-      <c r="H296" s="2">
-        <v>1</v>
-      </c>
-      <c r="I296" s="2">
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
         <v>3</v>
       </c>
     </row>
@@ -9038,28 +9039,28 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297">
         <v>14</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297">
         <v>17</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297">
         <v>22</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297">
         <v>24</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297">
         <v>30</v>
       </c>
-      <c r="G297" s="2">
+      <c r="G297">
         <v>38</v>
       </c>
-      <c r="H297" s="2">
-        <v>1</v>
-      </c>
-      <c r="I297" s="2">
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
         <v>3</v>
       </c>
     </row>
@@ -9067,28 +9068,28 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="2">
-        <v>1</v>
-      </c>
-      <c r="C298" s="2">
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
         <v>8</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298">
         <v>10</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298">
         <v>37</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298">
         <v>40</v>
       </c>
-      <c r="G298" s="2">
+      <c r="G298">
         <v>45</v>
       </c>
-      <c r="H298" s="2">
-        <v>2</v>
-      </c>
-      <c r="I298" s="2">
+      <c r="H298">
+        <v>2</v>
+      </c>
+      <c r="I298">
         <v>6</v>
       </c>
     </row>
@@ -9096,29 +9097,87 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="2">
-        <v>2</v>
-      </c>
-      <c r="C299" s="2">
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
         <v>9</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299">
         <v>10</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299">
         <v>28</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299">
         <v>35</v>
       </c>
-      <c r="G299" s="2">
+      <c r="G299">
         <v>36</v>
       </c>
-      <c r="H299" s="2">
-        <v>2</v>
-      </c>
-      <c r="I299" s="2">
-        <v>6</v>
+      <c r="H299">
+        <v>2</v>
+      </c>
+      <c r="I299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3">
+        <v>14</v>
+      </c>
+      <c r="C300" s="3">
+        <v>20</v>
+      </c>
+      <c r="D300" s="3">
+        <v>24</v>
+      </c>
+      <c r="E300" s="3">
+        <v>25</v>
+      </c>
+      <c r="F300" s="3">
+        <v>35</v>
+      </c>
+      <c r="G300" s="3">
+        <v>39</v>
+      </c>
+      <c r="H300" s="3">
+        <v>2</v>
+      </c>
+      <c r="I300" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3">
+        <v>9</v>
+      </c>
+      <c r="C301" s="3">
+        <v>10</v>
+      </c>
+      <c r="D301" s="3">
+        <v>18</v>
+      </c>
+      <c r="E301" s="3">
+        <v>19</v>
+      </c>
+      <c r="F301" s="3">
+        <v>20</v>
+      </c>
+      <c r="G301" s="3">
+        <v>38</v>
+      </c>
+      <c r="H301" s="3">
+        <v>1</v>
+      </c>
+      <c r="I301" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9137,6 +9196,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9304,16 +9373,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
   <ds:schemaRefs>
@@ -9323,6 +9382,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9340,15 +9410,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340643E7-42CC-40AF-8F53-B44263AD1E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E9E76-C749-4FD3-A6E6-065227EE7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57960" yWindow="510" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="10515" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -109,13 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300:I301"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9123,61 +9121,90 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A300" s="2">
+      <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300">
         <v>14</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300">
         <v>20</v>
       </c>
-      <c r="D300" s="3">
+      <c r="D300">
         <v>24</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300">
         <v>25</v>
       </c>
-      <c r="F300" s="3">
+      <c r="F300">
         <v>35</v>
       </c>
-      <c r="G300" s="3">
+      <c r="G300">
         <v>39</v>
       </c>
-      <c r="H300" s="3">
-        <v>2</v>
-      </c>
-      <c r="I300" s="3">
+      <c r="H300">
+        <v>2</v>
+      </c>
+      <c r="I300">
         <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A301" s="2">
+      <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301">
         <v>9</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301">
         <v>10</v>
       </c>
-      <c r="D301" s="3">
+      <c r="D301">
         <v>18</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301">
         <v>19</v>
       </c>
-      <c r="F301" s="3">
+      <c r="F301">
         <v>20</v>
       </c>
-      <c r="G301" s="3">
+      <c r="G301">
         <v>38</v>
       </c>
-      <c r="H301" s="3">
-        <v>1</v>
-      </c>
-      <c r="I301" s="3">
-        <v>4</v>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>7</v>
+      </c>
+      <c r="E302">
+        <v>10</v>
+      </c>
+      <c r="F302">
+        <v>11</v>
+      </c>
+      <c r="G302">
+        <v>29</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9187,25 +9214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9373,26 +9381,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9410,4 +9418,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E9E76-C749-4FD3-A6E6-065227EE7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AAC1A-1C29-4EB2-863B-910BCD0DC892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="10515" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="62925" yWindow="2535" windowWidth="15675" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9207,6 +9207,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>12</v>
+      </c>
+      <c r="C303">
+        <v>38</v>
+      </c>
+      <c r="D303">
+        <v>40</v>
+      </c>
+      <c r="E303">
+        <v>43</v>
+      </c>
+      <c r="F303">
+        <v>44</v>
+      </c>
+      <c r="G303">
+        <v>48</v>
+      </c>
+      <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>11</v>
+      </c>
+      <c r="C304">
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>13</v>
+      </c>
+      <c r="E304">
+        <v>25</v>
+      </c>
+      <c r="F304">
+        <v>39</v>
+      </c>
+      <c r="G304">
+        <v>49</v>
+      </c>
+      <c r="H304">
+        <v>4</v>
+      </c>
+      <c r="I304">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9214,6 +9272,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9381,26 +9458,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9418,23 +9495,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AAC1A-1C29-4EB2-863B-910BCD0DC892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA981C14-6FCD-45B7-9134-77C7938422D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62925" yWindow="2535" windowWidth="15675" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="74805" yWindow="225" windowWidth="21150" windowHeight="8955" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -109,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305:I308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9265,6 +9267,122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3">
+        <v>2</v>
+      </c>
+      <c r="C305" s="3">
+        <v>14</v>
+      </c>
+      <c r="D305" s="3">
+        <v>22</v>
+      </c>
+      <c r="E305" s="3">
+        <v>36</v>
+      </c>
+      <c r="F305" s="3">
+        <v>40</v>
+      </c>
+      <c r="G305" s="3">
+        <v>50</v>
+      </c>
+      <c r="H305" s="3">
+        <v>1</v>
+      </c>
+      <c r="I305" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="3">
+        <v>4</v>
+      </c>
+      <c r="C306" s="3">
+        <v>10</v>
+      </c>
+      <c r="D306" s="3">
+        <v>16</v>
+      </c>
+      <c r="E306" s="3">
+        <v>34</v>
+      </c>
+      <c r="F306" s="3">
+        <v>40</v>
+      </c>
+      <c r="G306" s="3">
+        <v>47</v>
+      </c>
+      <c r="H306" s="3">
+        <v>2</v>
+      </c>
+      <c r="I306" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="3">
+        <v>7</v>
+      </c>
+      <c r="C307" s="3">
+        <v>9</v>
+      </c>
+      <c r="D307" s="3">
+        <v>11</v>
+      </c>
+      <c r="E307" s="3">
+        <v>41</v>
+      </c>
+      <c r="F307" s="3">
+        <v>48</v>
+      </c>
+      <c r="G307" s="3">
+        <v>50</v>
+      </c>
+      <c r="H307" s="3">
+        <v>4</v>
+      </c>
+      <c r="I307" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="3">
+        <v>1</v>
+      </c>
+      <c r="C308" s="3">
+        <v>10</v>
+      </c>
+      <c r="D308" s="3">
+        <v>13</v>
+      </c>
+      <c r="E308" s="3">
+        <v>14</v>
+      </c>
+      <c r="F308" s="3">
+        <v>28</v>
+      </c>
+      <c r="G308" s="3">
+        <v>31</v>
+      </c>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="I308" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9272,25 +9390,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9458,26 +9557,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9495,4 +9594,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA981C14-6FCD-45B7-9134-77C7938422D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC77A825-77B0-4BB5-AA2F-F94F2AA23214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74805" yWindow="225" windowWidth="21150" windowHeight="8955" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="76170" yWindow="2850" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305:I308"/>
+      <selection activeCell="J315" sqref="J315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9268,118 +9268,234 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A305" s="2">
+      <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="3">
-        <v>2</v>
-      </c>
-      <c r="C305" s="3">
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
         <v>14</v>
       </c>
-      <c r="D305" s="3">
+      <c r="D305">
         <v>22</v>
       </c>
-      <c r="E305" s="3">
+      <c r="E305">
         <v>36</v>
       </c>
-      <c r="F305" s="3">
+      <c r="F305">
         <v>40</v>
       </c>
-      <c r="G305" s="3">
+      <c r="G305">
         <v>50</v>
       </c>
-      <c r="H305" s="3">
-        <v>1</v>
-      </c>
-      <c r="I305" s="3">
+      <c r="H305">
+        <v>1</v>
+      </c>
+      <c r="I305">
         <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A306" s="2">
+      <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="3">
-        <v>4</v>
-      </c>
-      <c r="C306" s="3">
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306">
         <v>10</v>
       </c>
-      <c r="D306" s="3">
+      <c r="D306">
         <v>16</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306">
         <v>34</v>
       </c>
-      <c r="F306" s="3">
+      <c r="F306">
         <v>40</v>
       </c>
-      <c r="G306" s="3">
+      <c r="G306">
         <v>47</v>
       </c>
-      <c r="H306" s="3">
-        <v>2</v>
-      </c>
-      <c r="I306" s="3">
+      <c r="H306">
+        <v>2</v>
+      </c>
+      <c r="I306">
         <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A307" s="2">
+      <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307">
         <v>7</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307">
         <v>9</v>
       </c>
-      <c r="D307" s="3">
+      <c r="D307">
         <v>11</v>
       </c>
-      <c r="E307" s="3">
+      <c r="E307">
         <v>41</v>
       </c>
-      <c r="F307" s="3">
+      <c r="F307">
         <v>48</v>
       </c>
-      <c r="G307" s="3">
+      <c r="G307">
         <v>50</v>
       </c>
-      <c r="H307" s="3">
-        <v>4</v>
-      </c>
-      <c r="I307" s="3">
+      <c r="H307">
+        <v>4</v>
+      </c>
+      <c r="I307">
         <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A308" s="2">
+      <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="3">
-        <v>1</v>
-      </c>
-      <c r="C308" s="3">
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
         <v>10</v>
       </c>
-      <c r="D308" s="3">
+      <c r="D308">
         <v>13</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308">
         <v>14</v>
       </c>
-      <c r="F308" s="3">
+      <c r="F308">
         <v>28</v>
       </c>
-      <c r="G308" s="3">
+      <c r="G308">
         <v>31</v>
       </c>
-      <c r="H308" s="3">
-        <v>1</v>
-      </c>
-      <c r="I308" s="3">
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="3">
+        <v>12</v>
+      </c>
+      <c r="C309" s="3">
+        <v>16</v>
+      </c>
+      <c r="D309" s="3">
+        <v>18</v>
+      </c>
+      <c r="E309" s="3">
+        <v>19</v>
+      </c>
+      <c r="F309" s="3">
+        <v>35</v>
+      </c>
+      <c r="G309" s="3">
+        <v>40</v>
+      </c>
+      <c r="H309" s="3">
+        <v>1</v>
+      </c>
+      <c r="I309" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="3">
+        <v>1</v>
+      </c>
+      <c r="C310" s="3">
+        <v>8</v>
+      </c>
+      <c r="D310" s="3">
+        <v>15</v>
+      </c>
+      <c r="E310" s="3">
+        <v>30</v>
+      </c>
+      <c r="F310" s="3">
+        <v>37</v>
+      </c>
+      <c r="G310" s="3">
+        <v>47</v>
+      </c>
+      <c r="H310" s="3">
+        <v>2</v>
+      </c>
+      <c r="I310" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="3">
+        <v>15</v>
+      </c>
+      <c r="C311" s="3">
+        <v>16</v>
+      </c>
+      <c r="D311" s="3">
+        <v>33</v>
+      </c>
+      <c r="E311" s="3">
+        <v>34</v>
+      </c>
+      <c r="F311" s="3">
+        <v>40</v>
+      </c>
+      <c r="G311" s="3">
+        <v>42</v>
+      </c>
+      <c r="H311" s="3">
+        <v>2</v>
+      </c>
+      <c r="I311" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="3">
+        <v>19</v>
+      </c>
+      <c r="C312" s="3">
+        <v>29</v>
+      </c>
+      <c r="D312" s="3">
+        <v>32</v>
+      </c>
+      <c r="E312" s="3">
+        <v>38</v>
+      </c>
+      <c r="F312" s="3">
+        <v>42</v>
+      </c>
+      <c r="G312" s="3">
+        <v>50</v>
+      </c>
+      <c r="H312" s="3">
+        <v>2</v>
+      </c>
+      <c r="I312" s="3">
         <v>4</v>
       </c>
     </row>
@@ -9390,6 +9506,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9557,26 +9692,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9594,23 +9729,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC77A825-77B0-4BB5-AA2F-F94F2AA23214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3149961D-02EC-449A-A52E-4872BE631D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76170" yWindow="2850" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58560" yWindow="1395" windowWidth="19665" windowHeight="12510" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -109,13 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="J315" sqref="J315"/>
+      <selection activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9384,119 +9382,148 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A309" s="2">
+      <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309">
         <v>12</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309">
         <v>16</v>
       </c>
-      <c r="D309" s="3">
+      <c r="D309">
         <v>18</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309">
         <v>19</v>
       </c>
-      <c r="F309" s="3">
+      <c r="F309">
         <v>35</v>
       </c>
-      <c r="G309" s="3">
+      <c r="G309">
         <v>40</v>
       </c>
-      <c r="H309" s="3">
-        <v>1</v>
-      </c>
-      <c r="I309" s="3">
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
         <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A310" s="2">
+      <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="3">
-        <v>1</v>
-      </c>
-      <c r="C310" s="3">
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
         <v>8</v>
       </c>
-      <c r="D310" s="3">
+      <c r="D310">
         <v>15</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310">
         <v>30</v>
       </c>
-      <c r="F310" s="3">
+      <c r="F310">
         <v>37</v>
       </c>
-      <c r="G310" s="3">
+      <c r="G310">
         <v>47</v>
       </c>
-      <c r="H310" s="3">
-        <v>2</v>
-      </c>
-      <c r="I310" s="3">
+      <c r="H310">
+        <v>2</v>
+      </c>
+      <c r="I310">
         <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A311" s="2">
+      <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311">
         <v>15</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311">
         <v>16</v>
       </c>
-      <c r="D311" s="3">
+      <c r="D311">
         <v>33</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311">
         <v>34</v>
       </c>
-      <c r="F311" s="3">
+      <c r="F311">
         <v>40</v>
       </c>
-      <c r="G311" s="3">
+      <c r="G311">
         <v>42</v>
       </c>
-      <c r="H311" s="3">
-        <v>2</v>
-      </c>
-      <c r="I311" s="3">
+      <c r="H311">
+        <v>2</v>
+      </c>
+      <c r="I311">
         <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A312" s="2">
+      <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312">
         <v>19</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312">
         <v>29</v>
       </c>
-      <c r="D312" s="3">
+      <c r="D312">
         <v>32</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312">
         <v>38</v>
       </c>
-      <c r="F312" s="3">
+      <c r="F312">
         <v>42</v>
       </c>
-      <c r="G312" s="3">
+      <c r="G312">
         <v>50</v>
       </c>
-      <c r="H312" s="3">
-        <v>2</v>
-      </c>
-      <c r="I312" s="3">
-        <v>4</v>
+      <c r="H312">
+        <v>2</v>
+      </c>
+      <c r="I312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>18</v>
+      </c>
+      <c r="D313">
+        <v>27</v>
+      </c>
+      <c r="E313">
+        <v>33</v>
+      </c>
+      <c r="F313">
+        <v>48</v>
+      </c>
+      <c r="G313">
+        <v>50</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -9506,25 +9533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9692,26 +9700,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9729,4 +9737,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3149961D-02EC-449A-A52E-4872BE631D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0698A3C-F5A5-4FF9-A31C-2D84EBAE1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58560" yWindow="1395" windowWidth="19665" windowHeight="12510" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="74310" yWindow="330" windowWidth="20130" windowHeight="11310" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
       <selection activeCell="I315" sqref="I315"/>
@@ -9526,6 +9526,35 @@
         <v>5</v>
       </c>
     </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>9</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314">
+        <v>22</v>
+      </c>
+      <c r="E314">
+        <v>33</v>
+      </c>
+      <c r="F314">
+        <v>34</v>
+      </c>
+      <c r="G314">
+        <v>49</v>
+      </c>
+      <c r="H314">
+        <v>2</v>
+      </c>
+      <c r="I314">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9533,6 +9562,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9700,26 +9748,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9737,23 +9785,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0698A3C-F5A5-4FF9-A31C-2D84EBAE1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6429F5-D0DC-4AC8-AAC7-048046DC3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74310" yWindow="330" windowWidth="20130" windowHeight="11310" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57690" yWindow="405" windowWidth="19740" windowHeight="16020" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -109,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="I315" sqref="I315"/>
+      <selection activeCell="B315" sqref="B315:I320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9555,6 +9557,180 @@
         <v>3</v>
       </c>
     </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315" s="3">
+        <v>7</v>
+      </c>
+      <c r="C315" s="3">
+        <v>12</v>
+      </c>
+      <c r="D315" s="3">
+        <v>14</v>
+      </c>
+      <c r="E315" s="3">
+        <v>17</v>
+      </c>
+      <c r="F315" s="3">
+        <v>21</v>
+      </c>
+      <c r="G315" s="3">
+        <v>41</v>
+      </c>
+      <c r="H315" s="3">
+        <v>4</v>
+      </c>
+      <c r="I315" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316" s="3">
+        <v>5</v>
+      </c>
+      <c r="C316" s="3">
+        <v>7</v>
+      </c>
+      <c r="D316" s="3">
+        <v>11</v>
+      </c>
+      <c r="E316" s="3">
+        <v>12</v>
+      </c>
+      <c r="F316" s="3">
+        <v>20</v>
+      </c>
+      <c r="G316" s="3">
+        <v>29</v>
+      </c>
+      <c r="H316" s="3">
+        <v>2</v>
+      </c>
+      <c r="I316" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317" s="3">
+        <v>10</v>
+      </c>
+      <c r="C317" s="3">
+        <v>11</v>
+      </c>
+      <c r="D317" s="3">
+        <v>12</v>
+      </c>
+      <c r="E317" s="3">
+        <v>18</v>
+      </c>
+      <c r="F317" s="3">
+        <v>36</v>
+      </c>
+      <c r="G317" s="3">
+        <v>48</v>
+      </c>
+      <c r="H317" s="3">
+        <v>3</v>
+      </c>
+      <c r="I317" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318" s="3">
+        <v>8</v>
+      </c>
+      <c r="C318" s="3">
+        <v>23</v>
+      </c>
+      <c r="D318" s="3">
+        <v>28</v>
+      </c>
+      <c r="E318" s="3">
+        <v>40</v>
+      </c>
+      <c r="F318" s="3">
+        <v>49</v>
+      </c>
+      <c r="G318" s="3">
+        <v>50</v>
+      </c>
+      <c r="H318" s="3">
+        <v>1</v>
+      </c>
+      <c r="I318" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="3">
+        <v>3</v>
+      </c>
+      <c r="C319" s="3">
+        <v>6</v>
+      </c>
+      <c r="D319" s="3">
+        <v>22</v>
+      </c>
+      <c r="E319" s="3">
+        <v>23</v>
+      </c>
+      <c r="F319" s="3">
+        <v>38</v>
+      </c>
+      <c r="G319" s="3">
+        <v>49</v>
+      </c>
+      <c r="H319" s="3">
+        <v>4</v>
+      </c>
+      <c r="I319" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="3">
+        <v>11</v>
+      </c>
+      <c r="C320" s="3">
+        <v>18</v>
+      </c>
+      <c r="D320" s="3">
+        <v>26</v>
+      </c>
+      <c r="E320" s="3">
+        <v>29</v>
+      </c>
+      <c r="F320" s="3">
+        <v>30</v>
+      </c>
+      <c r="G320" s="3">
+        <v>37</v>
+      </c>
+      <c r="H320" s="3">
+        <v>1</v>
+      </c>
+      <c r="I320" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9562,25 +9738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9748,26 +9905,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9785,4 +9942,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6429F5-D0DC-4AC8-AAC7-048046DC3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34212107-F6E2-4895-AB23-8DED857E7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="405" windowWidth="19740" windowHeight="16020" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57630" yWindow="810" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315:I320"/>
+      <selection activeCell="M325" sqref="M325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9558,177 +9558,322 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A315" s="2">
+      <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315">
         <v>7</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315">
         <v>12</v>
       </c>
-      <c r="D315" s="3">
+      <c r="D315">
         <v>14</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315">
         <v>17</v>
       </c>
-      <c r="F315" s="3">
+      <c r="F315">
         <v>21</v>
       </c>
-      <c r="G315" s="3">
+      <c r="G315">
         <v>41</v>
       </c>
-      <c r="H315" s="3">
-        <v>4</v>
-      </c>
-      <c r="I315" s="3">
+      <c r="H315">
+        <v>4</v>
+      </c>
+      <c r="I315">
         <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A316" s="2">
+      <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="3">
-        <v>5</v>
-      </c>
-      <c r="C316" s="3">
+      <c r="B316">
+        <v>5</v>
+      </c>
+      <c r="C316">
         <v>7</v>
       </c>
-      <c r="D316" s="3">
+      <c r="D316">
         <v>11</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316">
         <v>12</v>
       </c>
-      <c r="F316" s="3">
+      <c r="F316">
         <v>20</v>
       </c>
-      <c r="G316" s="3">
+      <c r="G316">
         <v>29</v>
       </c>
-      <c r="H316" s="3">
-        <v>2</v>
-      </c>
-      <c r="I316" s="3">
+      <c r="H316">
+        <v>2</v>
+      </c>
+      <c r="I316">
         <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A317" s="2">
+      <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317">
         <v>10</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317">
         <v>11</v>
       </c>
-      <c r="D317" s="3">
+      <c r="D317">
         <v>12</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317">
         <v>18</v>
       </c>
-      <c r="F317" s="3">
+      <c r="F317">
         <v>36</v>
       </c>
-      <c r="G317" s="3">
+      <c r="G317">
         <v>48</v>
       </c>
-      <c r="H317" s="3">
-        <v>3</v>
-      </c>
-      <c r="I317" s="3">
+      <c r="H317">
+        <v>3</v>
+      </c>
+      <c r="I317">
         <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A318" s="2">
+      <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318">
         <v>8</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318">
         <v>23</v>
       </c>
-      <c r="D318" s="3">
+      <c r="D318">
         <v>28</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318">
         <v>40</v>
       </c>
-      <c r="F318" s="3">
+      <c r="F318">
         <v>49</v>
       </c>
-      <c r="G318" s="3">
+      <c r="G318">
         <v>50</v>
       </c>
-      <c r="H318" s="3">
-        <v>1</v>
-      </c>
-      <c r="I318" s="3">
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
         <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A319" s="2">
+      <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="3">
-        <v>3</v>
-      </c>
-      <c r="C319" s="3">
-        <v>6</v>
-      </c>
-      <c r="D319" s="3">
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>6</v>
+      </c>
+      <c r="D319">
         <v>22</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319">
         <v>23</v>
       </c>
-      <c r="F319" s="3">
+      <c r="F319">
         <v>38</v>
       </c>
-      <c r="G319" s="3">
+      <c r="G319">
         <v>49</v>
       </c>
-      <c r="H319" s="3">
-        <v>4</v>
-      </c>
-      <c r="I319" s="3">
+      <c r="H319">
+        <v>4</v>
+      </c>
+      <c r="I319">
         <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A320" s="2">
+      <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320">
         <v>11</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320">
         <v>18</v>
       </c>
-      <c r="D320" s="3">
+      <c r="D320">
         <v>26</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320">
         <v>29</v>
       </c>
-      <c r="F320" s="3">
+      <c r="F320">
         <v>30</v>
       </c>
-      <c r="G320" s="3">
+      <c r="G320">
         <v>37</v>
       </c>
-      <c r="H320" s="3">
-        <v>1</v>
-      </c>
-      <c r="I320" s="3">
-        <v>3</v>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="3">
+        <v>20</v>
+      </c>
+      <c r="C321" s="3">
+        <v>35</v>
+      </c>
+      <c r="D321" s="3">
+        <v>36</v>
+      </c>
+      <c r="E321" s="3">
+        <v>38</v>
+      </c>
+      <c r="F321" s="3">
+        <v>41</v>
+      </c>
+      <c r="G321" s="3">
+        <v>44</v>
+      </c>
+      <c r="H321" s="3">
+        <v>4</v>
+      </c>
+      <c r="I321" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="3">
+        <v>1</v>
+      </c>
+      <c r="C322" s="3">
+        <v>9</v>
+      </c>
+      <c r="D322" s="3">
+        <v>22</v>
+      </c>
+      <c r="E322" s="3">
+        <v>31</v>
+      </c>
+      <c r="F322" s="3">
+        <v>32</v>
+      </c>
+      <c r="G322" s="3">
+        <v>45</v>
+      </c>
+      <c r="H322" s="3">
+        <v>3</v>
+      </c>
+      <c r="I322" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="3">
+        <v>1</v>
+      </c>
+      <c r="C323" s="3">
+        <v>4</v>
+      </c>
+      <c r="D323" s="3">
+        <v>14</v>
+      </c>
+      <c r="E323" s="3">
+        <v>18</v>
+      </c>
+      <c r="F323" s="3">
+        <v>40</v>
+      </c>
+      <c r="G323" s="3">
+        <v>46</v>
+      </c>
+      <c r="H323" s="3">
+        <v>3</v>
+      </c>
+      <c r="I323" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="3">
+        <v>8</v>
+      </c>
+      <c r="C324" s="3">
+        <v>11</v>
+      </c>
+      <c r="D324" s="3">
+        <v>12</v>
+      </c>
+      <c r="E324" s="3">
+        <v>15</v>
+      </c>
+      <c r="F324" s="3">
+        <v>37</v>
+      </c>
+      <c r="G324" s="3">
+        <v>38</v>
+      </c>
+      <c r="H324" s="3">
+        <v>1</v>
+      </c>
+      <c r="I324" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="3">
+        <v>9</v>
+      </c>
+      <c r="C325" s="3">
+        <v>12</v>
+      </c>
+      <c r="D325" s="3">
+        <v>17</v>
+      </c>
+      <c r="E325" s="3">
+        <v>29</v>
+      </c>
+      <c r="F325" s="3">
+        <v>30</v>
+      </c>
+      <c r="G325" s="3">
+        <v>45</v>
+      </c>
+      <c r="H325" s="3">
+        <v>2</v>
+      </c>
+      <c r="I325" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9738,6 +9883,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9905,16 +10060,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9925,6 +10070,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD255BF4-F3C2-4BEE-8F0D-D649B10487B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9944,17 +10100,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
   <ds:schemaRefs>

--- a/LoteriasExcel/Milionária_edt.xlsx
+++ b/LoteriasExcel/Milionária_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34212107-F6E2-4895-AB23-8DED857E7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D5F541-AA8C-431B-8F80-1150AA58D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57630" yWindow="810" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="77895" yWindow="960" windowWidth="17280" windowHeight="18765" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="+ MILIONÁRIA" sheetId="12" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2F70E5-30B2-4963-A61E-AD5ABF761887}">
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="M325" sqref="M325"/>
+      <selection activeCell="D336" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9732,148 +9732,264 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A321" s="2">
+      <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321">
         <v>20</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321">
         <v>35</v>
       </c>
-      <c r="D321" s="3">
+      <c r="D321">
         <v>36</v>
       </c>
-      <c r="E321" s="3">
+      <c r="E321">
         <v>38</v>
       </c>
-      <c r="F321" s="3">
+      <c r="F321">
         <v>41</v>
       </c>
-      <c r="G321" s="3">
+      <c r="G321">
         <v>44</v>
       </c>
-      <c r="H321" s="3">
-        <v>4</v>
-      </c>
-      <c r="I321" s="3">
+      <c r="H321">
+        <v>4</v>
+      </c>
+      <c r="I321">
         <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A322" s="2">
+      <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="3">
-        <v>1</v>
-      </c>
-      <c r="C322" s="3">
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
         <v>9</v>
       </c>
-      <c r="D322" s="3">
+      <c r="D322">
         <v>22</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322">
         <v>31</v>
       </c>
-      <c r="F322" s="3">
+      <c r="F322">
         <v>32</v>
       </c>
-      <c r="G322" s="3">
+      <c r="G322">
         <v>45</v>
       </c>
-      <c r="H322" s="3">
-        <v>3</v>
-      </c>
-      <c r="I322" s="3">
+      <c r="H322">
+        <v>3</v>
+      </c>
+      <c r="I322">
         <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A323" s="2">
+      <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="3">
-        <v>1</v>
-      </c>
-      <c r="C323" s="3">
-        <v>4</v>
-      </c>
-      <c r="D323" s="3">
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323">
         <v>14</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323">
         <v>18</v>
       </c>
-      <c r="F323" s="3">
+      <c r="F323">
         <v>40</v>
       </c>
-      <c r="G323" s="3">
+      <c r="G323">
         <v>46</v>
       </c>
-      <c r="H323" s="3">
-        <v>3</v>
-      </c>
-      <c r="I323" s="3">
+      <c r="H323">
+        <v>3</v>
+      </c>
+      <c r="I323">
         <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A324" s="2">
+      <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324">
         <v>8</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324">
         <v>11</v>
       </c>
-      <c r="D324" s="3">
+      <c r="D324">
         <v>12</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324">
         <v>15</v>
       </c>
-      <c r="F324" s="3">
+      <c r="F324">
         <v>37</v>
       </c>
-      <c r="G324" s="3">
+      <c r="G324">
         <v>38</v>
       </c>
-      <c r="H324" s="3">
-        <v>1</v>
-      </c>
-      <c r="I324" s="3">
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
         <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A325" s="2">
+      <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325">
         <v>9</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325">
         <v>12</v>
       </c>
-      <c r="D325" s="3">
+      <c r="D325">
         <v>17</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325">
         <v>29</v>
       </c>
-      <c r="F325" s="3">
+      <c r="F325">
         <v>30</v>
       </c>
-      <c r="G325" s="3">
+      <c r="G325">
         <v>45</v>
       </c>
-      <c r="H325" s="3">
-        <v>2</v>
-      </c>
-      <c r="I325" s="3">
-        <v>6</v>
+      <c r="H325">
+        <v>2</v>
+      </c>
+      <c r="I325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="3">
+        <v>13</v>
+      </c>
+      <c r="C326" s="3">
+        <v>14</v>
+      </c>
+      <c r="D326" s="3">
+        <v>19</v>
+      </c>
+      <c r="E326" s="3">
+        <v>21</v>
+      </c>
+      <c r="F326" s="3">
+        <v>26</v>
+      </c>
+      <c r="G326" s="3">
+        <v>41</v>
+      </c>
+      <c r="H326" s="3">
+        <v>4</v>
+      </c>
+      <c r="I326" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="3">
+        <v>16</v>
+      </c>
+      <c r="C327" s="3">
+        <v>20</v>
+      </c>
+      <c r="D327" s="3">
+        <v>29</v>
+      </c>
+      <c r="E327" s="3">
+        <v>34</v>
+      </c>
+      <c r="F327" s="3">
+        <v>35</v>
+      </c>
+      <c r="G327" s="3">
+        <v>42</v>
+      </c>
+      <c r="H327" s="3">
+        <v>3</v>
+      </c>
+      <c r="I327" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="3">
+        <v>4</v>
+      </c>
+      <c r="C328" s="3">
+        <v>7</v>
+      </c>
+      <c r="D328" s="3">
+        <v>12</v>
+      </c>
+      <c r="E328" s="3">
+        <v>25</v>
+      </c>
+      <c r="F328" s="3">
+        <v>28</v>
+      </c>
+      <c r="G328" s="3">
+        <v>46</v>
+      </c>
+      <c r="H328" s="3">
+        <v>1</v>
+      </c>
+      <c r="I328" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="3">
+        <v>3</v>
+      </c>
+      <c r="C329" s="3">
+        <v>19</v>
+      </c>
+      <c r="D329" s="3">
+        <v>21</v>
+      </c>
+      <c r="E329" s="3">
+        <v>25</v>
+      </c>
+      <c r="F329" s="3">
+        <v>27</v>
+      </c>
+      <c r="G329" s="3">
+        <v>42</v>
+      </c>
+      <c r="H329" s="3">
+        <v>2</v>
+      </c>
+      <c r="I329" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9883,13 +9999,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10061,21 +10176,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-21T04:06:33+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10101,9 +10214,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498C8BED-ADD0-4229-BCAE-F34B21F201A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5937A41-16C2-4E59-B938-0AB818017E0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>